--- a/UT9/PDs/TA4/Tiempos ejecucionBISQ.xlsx
+++ b/UT9/PDs/TA4/Tiempos ejecucionBISQ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Juegos y TODO\Archivos\Usuarios\Martin\GITHUB\AED-Folder\UT9\PDs\TA4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3438254-63F7-4358-B4F0-EBEE6CB2FF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F1DB26-7DCA-484E-9457-1E90A9E79368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -717,6 +717,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -759,9 +762,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1291,6 +1291,7 @@
       <c:valAx>
         <c:axId val="1407032224"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1948,6 +1949,7 @@
       <c:valAx>
         <c:axId val="1419125088"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2605,6 +2607,7 @@
       <c:valAx>
         <c:axId val="1419135072"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4734,8 +4737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5045F8A4-50E8-471C-9EA8-12579D057858}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4759,23 +4762,23 @@
       <c r="A3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="33">
         <v>300</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="35"/>
     </row>
     <row r="4" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
@@ -4796,7 +4799,7 @@
       <c r="F5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="46"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
@@ -4891,23 +4894,23 @@
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="36">
         <v>10000</v>
       </c>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="31"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="32"/>
     </row>
     <row r="12" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
@@ -5009,23 +5012,23 @@
       <c r="A20" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20" s="38">
         <v>30000</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
     </row>
     <row r="21" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="31"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
@@ -5163,11 +5166,11 @@
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="41"/>
-      <c r="E3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -5259,11 +5262,11 @@
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -5358,11 +5361,11 @@
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
@@ -5455,11 +5458,11 @@
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
